--- a/doc/log-dimming-curve.xlsx
+++ b/doc/log-dimming-curve.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Mi0" vbProcedure="false">Sheet1!$C$1</definedName>
     <definedName function="false" hidden="false" name="Min" vbProcedure="false">Sheet1!$C$1</definedName>
     <definedName function="false" hidden="false" name="Min0" vbProcedure="false">Sheet1!$C$1</definedName>
+    <definedName function="false" hidden="false" name="Mult0" vbProcedure="false">Sheet1!$C$4</definedName>
     <definedName function="false" hidden="false" name="R0" vbProcedure="false">Sheet1!$C$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Min</t>
   </si>
@@ -35,6 +37,9 @@
   </si>
   <si>
     <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multip</t>
   </si>
   <si>
     <t xml:space="preserve">Input</t>
@@ -50,11 +55,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +76,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +213,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -217,7 +228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$B$5</c:f>
+              <c:f>Sheet1!$B$6:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -236,6 +247,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -245,7 +258,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$261</c:f>
+              <c:f>Sheet1!$B$7:$B$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -1026,7 +1039,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$5:$C$5</c:f>
+              <c:f>Sheet1!$C$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1045,6 +1058,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1054,777 +1069,777 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$261</c:f>
+              <c:f>Sheet1!$C$7:$C$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>37</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>37</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>38</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>38</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>38</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>38</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>38</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>38</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>38</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>38</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>38</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>38</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>38</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>38</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>39</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>39</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>39</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>39</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>39</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>39</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>39</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>39</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>39</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>39</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>39</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>39</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>40</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>40</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>40</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>40</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>40</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>40</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>40</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>40</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>40</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>41</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>41</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>41</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>41</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>41</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>41</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>41</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>42</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>42</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>42</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>42</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>44</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>44</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>44</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>44</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>44</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>45</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>45</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>45</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>45</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>45</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>46</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>46</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>46</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>46</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>47</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>47</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>47</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>47</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>48</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>48</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>48</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>48</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>49</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>49</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>49</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>50</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>50</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>50</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>51</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>51</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>51</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>52</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>52</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>52</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>53</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>53</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>54</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>54</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>54</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>55</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>55</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>56</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>56</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>57</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>57</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>58</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>58</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>59</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>59</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>60</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>60</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>61</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>61</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>62</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>62</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>63</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>64</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>64</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>65</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>66</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>66</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>67</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>68</c:v>
+                  <c:v>541</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>68</c:v>
+                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>69</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>70</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>71</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>71</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>72</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>73</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>74</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>75</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>76</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>76</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>77</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>78</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>79</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>80</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>81</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>82</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>83</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>84</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>85</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>86</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>88</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>89</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>90</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>91</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>92</c:v>
+                  <c:v>739</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>94</c:v>
+                  <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>95</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>96</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>98</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>99</c:v>
+                  <c:v>791</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>100</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>102</c:v>
+                  <c:v>814</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>103</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>105</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>106</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>108</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>109</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>111</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>113</c:v>
+                  <c:v>901</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>114</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>116</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>118</c:v>
+                  <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>120</c:v>
+                  <c:v>958</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>122</c:v>
+                  <c:v>972</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>123</c:v>
+                  <c:v>988</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>125</c:v>
+                  <c:v>1003</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>127</c:v>
+                  <c:v>1019</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>129</c:v>
+                  <c:v>1035</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>131</c:v>
+                  <c:v>1052</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>134</c:v>
+                  <c:v>1069</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>136</c:v>
+                  <c:v>1086</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>138</c:v>
+                  <c:v>1104</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>140</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>143</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>145</c:v>
+                  <c:v>1159</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>147</c:v>
+                  <c:v>1178</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>150</c:v>
+                  <c:v>1198</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>152</c:v>
+                  <c:v>1218</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>155</c:v>
+                  <c:v>1239</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>157</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>160</c:v>
+                  <c:v>1281</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>163</c:v>
+                  <c:v>1303</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>166</c:v>
+                  <c:v>1326</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>169</c:v>
+                  <c:v>1349</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>172</c:v>
+                  <c:v>1372</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>175</c:v>
+                  <c:v>1396</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>178</c:v>
+                  <c:v>1421</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>181</c:v>
+                  <c:v>1446</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>184</c:v>
+                  <c:v>1471</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>187</c:v>
+                  <c:v>1497</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>191</c:v>
+                  <c:v>1524</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>194</c:v>
+                  <c:v>1552</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>197</c:v>
+                  <c:v>1579</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>201</c:v>
+                  <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>205</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>208</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>212</c:v>
+                  <c:v>1697</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>216</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>220</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>224</c:v>
+                  <c:v>1793</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>228</c:v>
+                  <c:v>1826</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>232</c:v>
+                  <c:v>1860</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>237</c:v>
+                  <c:v>1895</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>241</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>246</c:v>
+                  <c:v>1966</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>250</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>255</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,11 +1847,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55631815"/>
-        <c:axId val="89384961"/>
+        <c:axId val="5056238"/>
+        <c:axId val="51023984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55631815"/>
+        <c:axId val="5056238"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,14 +1879,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89384961"/>
+        <c:crossAx val="51023984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89384961"/>
+        <c:axId val="51023984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1901,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1908,7 +1923,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55631815"/>
+        <c:crossAx val="5056238"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1961,14 +1976,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>162360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>232560</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1976,8 +1991,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5851800" y="1060920"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="5851800" y="1223640"/>
+        <a:ext cx="5759640" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1995,10 +2010,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C261"/>
+  <dimension ref="B1:C262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:IV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2032,2316 +2047,2324 @@
         <v>31.8975139157964</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B6/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B7/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B7/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>288</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B8/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B8/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>288</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B9/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B9/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>288</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B10/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B10/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>288</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B11/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B11/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B12/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B12/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>289</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B13/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B13/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>289</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B14/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B14/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>289</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B15/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B15/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>289</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B16/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B16/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>289</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B17/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B17/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>290</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B18/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B18/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>290</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B19/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B19/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>290</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B20/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B20/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>290</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B21/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B21/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>290</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B22/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B22/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>291</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B23/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B23/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>291</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B24/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B24/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>291</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B25/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B25/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>291</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B26/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B26/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>292</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B27/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>36</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B27/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>292</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B28/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B28/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>292</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B29/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B29/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>292</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B30/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B30/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>292</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B31/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B31/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>293</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B32/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B32/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>293</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B33/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B33/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>293</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B34/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B34/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>294</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B35/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B35/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>294</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B36/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B36/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>294</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B37/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B37/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>294</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B38/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B38/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>295</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B39/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B39/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>295</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B40/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B40/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>295</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B41/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B41/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>296</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B42/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B42/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>296</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B43/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B43/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>296</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B44/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B44/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>297</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B45/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B45/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>297</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B46/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B46/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>297</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B47/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B47/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>298</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B48/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B48/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>298</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B49/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B49/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>298</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B50/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B50/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>299</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B51/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B51/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>299</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B52/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>37</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B52/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>299</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B53/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B53/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B54/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B54/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B55/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B55/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>301</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B56/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B56/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>301</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B57/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B57/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>302</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B58/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B58/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>302</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B59/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B59/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>302</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B60/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B60/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>303</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B61/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B61/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>303</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B62/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B62/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>304</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B63/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B63/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>304</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B64/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B64/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>305</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B65/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B65/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>305</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B66/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B66/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>306</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B67/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B67/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>307</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B68/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>38</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B68/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>307</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B69/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B69/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>308</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B70/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B70/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>308</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B71/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B71/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>309</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B72/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B72/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>309</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B73/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B73/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>310</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B74/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B74/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>311</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B75/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B75/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>311</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B76/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B76/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>312</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B77/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B77/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>313</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B78/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B78/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>313</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B79/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B79/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>314</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B80/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>39</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B80/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>315</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B81/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B81/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>316</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B82/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B82/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>316</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B83/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B83/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>317</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B84/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B84/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>318</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B85/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B85/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>319</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B86/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B86/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B87/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B87/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B88/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B88/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>321</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B89/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B89/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>322</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B90/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>40</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B90/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>323</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B91/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>41</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B91/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>324</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B92/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>41</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B92/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>325</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B93/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>41</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B93/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>326</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B94/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>41</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B94/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>327</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B95/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>41</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B95/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>328</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B96/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>41</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B96/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>329</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B97/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>41</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B97/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>330</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B98/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>42</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B98/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>331</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B99/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>42</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B99/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>332</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B100/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>42</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B100/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>333</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B101/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>42</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B101/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>334</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B102/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>42</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B102/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>335</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B103/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>42</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B103/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>337</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B104/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>42</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B104/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>338</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B105/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>43</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B105/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>339</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B106/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>43</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B106/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>340</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B107/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>43</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B107/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>342</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B108/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>43</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B108/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>343</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B109/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>43</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B109/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>344</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B110/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>43</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B110/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>346</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B111/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>44</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B111/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>347</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B112/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>44</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B112/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>349</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C113" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B113/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>44</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B113/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>350</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B114/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>44</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B114/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>352</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C115" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B115/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>44</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B115/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>353</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B116/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>45</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B116/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>355</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B117/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>45</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B117/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>356</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B118/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>45</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B118/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>358</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B119/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>45</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B119/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>360</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B120/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>45</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B120/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>362</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B121/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>46</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B121/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>363</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B122/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>46</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B122/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>365</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C123" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B123/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>46</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B123/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>367</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B124/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>46</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B124/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>369</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B125/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>47</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B125/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>371</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B126/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>47</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B126/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>373</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B127/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>47</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B127/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>375</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B128/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>47</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B128/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>377</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B129/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>48</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B129/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>379</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B130/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>48</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B130/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>381</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B131/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>48</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B131/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>383</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B132/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>48</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B132/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>385</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C133" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B133/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>49</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B133/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>388</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B134/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>49</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B134/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>390</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C135" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B135/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>49</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B135/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>393</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C136" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B136/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>50</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B136/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>395</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C137" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B137/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>50</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B137/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>397</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B138/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>50</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B138/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C139" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B139/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>51</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B139/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>403</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B140/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>51</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B140/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>405</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B141/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>51</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B141/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>408</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C142" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B142/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>52</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B142/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>411</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C143" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B143/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>52</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B143/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>414</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B144/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>52</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B144/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>417</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C145" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B145/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>53</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B145/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>420</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C146" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B146/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>53</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B146/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>423</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C147" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B147/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>54</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B147/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>426</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C148" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B148/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>54</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B148/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>429</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B149/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>54</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B149/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>432</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C150" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B150/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>55</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B150/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>435</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C151" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B151/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>55</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B151/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>439</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B152/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>56</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B152/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>442</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C153" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B153/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>56</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B153/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>446</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C154" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B154/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>57</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B154/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>449</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B155/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>57</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B155/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>453</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C156" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B156/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>58</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B156/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>457</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C157" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B157/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>58</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B157/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>461</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B158/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>59</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B158/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>465</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C159" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B159/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>59</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B159/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>469</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B160/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>60</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B160/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>473</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C161" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B161/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>60</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B161/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>477</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C162" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B162/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>61</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B162/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>481</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C163" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B163/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>61</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B163/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>486</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C164" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B164/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>62</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B164/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>490</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C165" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B165/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>62</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B165/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>495</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C166" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B166/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>63</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B166/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="1" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C167" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B167/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>64</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B167/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>504</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C168" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B168/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>64</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B168/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>509</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B169/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>65</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B169/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>514</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C170" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B170/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>66</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B170/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>519</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C171" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B171/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>66</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B171/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>525</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B172/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>67</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B172/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>530</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C173" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B173/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>68</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B173/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>536</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C174" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B174/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>68</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B174/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>541</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C175" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B175/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>69</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B175/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>547</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C176" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B176/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>70</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B176/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>553</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C177" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B177/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>71</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B177/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>559</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C178" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B178/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>71</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B178/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>565</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C179" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B179/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>72</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B179/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>571</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C180" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B180/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>73</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B180/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>577</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C181" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B181/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>74</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B181/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>584</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C182" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B182/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>75</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B182/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>590</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C183" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B183/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>76</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B183/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>597</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C184" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B184/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>76</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B184/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>604</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C185" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B185/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>77</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B185/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>611</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C186" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B186/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>78</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B186/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>619</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C187" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B187/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>79</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B187/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>626</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C188" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B188/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>80</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B188/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>634</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B189/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>81</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B189/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>641</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C190" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B190/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>82</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B190/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>649</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C191" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B191/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>83</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B191/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>657</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B192/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>84</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B192/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>666</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C193" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B193/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>85</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B193/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>674</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C194" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B194/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>86</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B194/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>683</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C195" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B195/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>88</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B195/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>691</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C196" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B196/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>89</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B196/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>701</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C197" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B197/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>90</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B197/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>710</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C198" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B198/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>91</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B198/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>719</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C199" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B199/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>92</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B199/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>729</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C200" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B200/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>94</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B200/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>739</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C201" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B201/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>95</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B201/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>749</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C202" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B202/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>96</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B202/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>759</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C203" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B203/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>98</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B203/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>769</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C204" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B204/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>99</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B204/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>780</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C205" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B205/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>100</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B205/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>791</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C206" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B206/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>102</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B206/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>802</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C207" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B207/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>103</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B207/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>814</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C208" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B208/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>105</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B208/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>825</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C209" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B209/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>106</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B209/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>837</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C210" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B210/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>108</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B210/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>850</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C211" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B211/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>109</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B211/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>862</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C212" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B212/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>111</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B212/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>875</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C213" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B213/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>113</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B213/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>888</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C214" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B214/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>114</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B214/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>901</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B215/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>116</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B215/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>915</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B216/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>118</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B216/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>929</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C217" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B217/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>120</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B217/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>943</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C218" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B218/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>122</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B218/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>958</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C219" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B219/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>123</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B219/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>972</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C220" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B220/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>125</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B220/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>988</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C221" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B221/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>127</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B221/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1003</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B222/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>129</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B222/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1019</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B223/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>131</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B223/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1035</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B224/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>134</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B224/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1052</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C225" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B225/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>136</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B225/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1069</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C226" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B226/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>138</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B226/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1086</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B227/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>140</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B227/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1104</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B228/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>143</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B228/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1122</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B229/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>145</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B229/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1140</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C230" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B230/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>147</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B230/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1159</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B231/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>150</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B231/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1178</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B232/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>152</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B232/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1198</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B233/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>155</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B233/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1218</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B234/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>157</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B234/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1239</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B235/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>160</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B235/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1260</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C236" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B236/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>163</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B236/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1281</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C237" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B237/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>166</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B237/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1303</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C238" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B238/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>169</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B238/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1326</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B239/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>172</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B239/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1349</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C240" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B240/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>175</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B240/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1372</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C241" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B241/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>178</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B241/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1396</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C242" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B242/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>181</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B242/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1421</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C243" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B243/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>184</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B243/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1446</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C244" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B244/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>187</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B244/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1471</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C245" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B245/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>191</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B245/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1497</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C246" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B246/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>194</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B246/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1524</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C247" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B247/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>197</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B247/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1552</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C248" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B248/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>201</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B248/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1579</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C249" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B249/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>205</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B249/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1608</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C250" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B250/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>208</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B250/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1637</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C251" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B251/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>212</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B251/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1667</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B252/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>216</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B252/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1697</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C253" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B253/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>220</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B253/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1728</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C254" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B254/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>224</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B254/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1760</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C255" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B255/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>228</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B255/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1793</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C256" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B256/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>232</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B256/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1826</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C257" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B257/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>237</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B257/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1860</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C258" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B258/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>241</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B258/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1895</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C259" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B259/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>246</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B259/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1930</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C260" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B260/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>250</v>
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B260/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>1966</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="C261" s="1" t="n">
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B261/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="C261" s="1" t="n">
-        <f aca="false">ROUND(Mi0 + (POWER(2, (B261/R0))- 1) /255 * (256 - Mi0),0)</f>
-        <v>255</v>
+      <c r="C262" s="1" t="n">
+        <f aca="false">ROUND((Mi0 + (POWER(2, (B262/R0))- 1) /255 * (256 - Mi0)) *  Mult0,0)</f>
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -4354,4 +4377,801 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:IV1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:IV1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="R1" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="S1" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="T1" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="U1" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="V1" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="W1" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="Y1" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="Z1" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="AA1" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="AB1" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="AC1" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="AD1" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="AE1" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="AF1" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="AG1" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="AH1" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="AI1" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="AJ1" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="AK1" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="AL1" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="AM1" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="AN1" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="AO1" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="AP1" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="AQ1" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="AR1" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="AS1" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="AT1" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU1" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="AV1" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="AW1" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX1" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="AY1" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="AZ1" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="BA1" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="BB1" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="BC1" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="BD1" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="BE1" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="BF1" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="BG1" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="BH1" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="BI1" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="BJ1" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="BK1" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="BL1" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="BM1" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="BN1" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="BO1" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="BP1" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="BQ1" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="BR1" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="BS1" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="BT1" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="BU1" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="BV1" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="BW1" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="BX1" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="BY1" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="BZ1" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="CA1" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="CB1" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="CC1" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="CD1" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="CE1" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="CF1" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="CG1" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="CH1" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="CI1" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="CJ1" s="0" t="n">
+        <v>327</v>
+      </c>
+      <c r="CK1" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="CL1" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="CM1" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="CN1" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="CO1" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="CP1" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="CQ1" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="CR1" s="0" t="n">
+        <v>335</v>
+      </c>
+      <c r="CS1" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="CT1" s="0" t="n">
+        <v>338</v>
+      </c>
+      <c r="CU1" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="CV1" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="CW1" s="0" t="n">
+        <v>342</v>
+      </c>
+      <c r="CX1" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="CY1" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="CZ1" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="DA1" s="0" t="n">
+        <v>347</v>
+      </c>
+      <c r="DB1" s="0" t="n">
+        <v>349</v>
+      </c>
+      <c r="DC1" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="DD1" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="DE1" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="DF1" s="0" t="n">
+        <v>355</v>
+      </c>
+      <c r="DG1" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="DH1" s="0" t="n">
+        <v>358</v>
+      </c>
+      <c r="DI1" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="DJ1" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="DK1" s="0" t="n">
+        <v>363</v>
+      </c>
+      <c r="DL1" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="DM1" s="0" t="n">
+        <v>367</v>
+      </c>
+      <c r="DN1" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="DO1" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="DP1" s="0" t="n">
+        <v>373</v>
+      </c>
+      <c r="DQ1" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="DR1" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="DS1" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="DT1" s="0" t="n">
+        <v>381</v>
+      </c>
+      <c r="DU1" s="0" t="n">
+        <v>383</v>
+      </c>
+      <c r="DV1" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="DW1" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="DX1" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="DY1" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="DZ1" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="EA1" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="EB1" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="EC1" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="ED1" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="EE1" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="EF1" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="EG1" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="EH1" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="EI1" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="EJ1" s="0" t="n">
+        <v>423</v>
+      </c>
+      <c r="EK1" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="EL1" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="EM1" s="0" t="n">
+        <v>432</v>
+      </c>
+      <c r="EN1" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="EO1" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="EP1" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="EQ1" s="0" t="n">
+        <v>446</v>
+      </c>
+      <c r="ER1" s="0" t="n">
+        <v>449</v>
+      </c>
+      <c r="ES1" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="ET1" s="0" t="n">
+        <v>457</v>
+      </c>
+      <c r="EU1" s="0" t="n">
+        <v>461</v>
+      </c>
+      <c r="EV1" s="0" t="n">
+        <v>465</v>
+      </c>
+      <c r="EW1" s="0" t="n">
+        <v>469</v>
+      </c>
+      <c r="EX1" s="0" t="n">
+        <v>473</v>
+      </c>
+      <c r="EY1" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="EZ1" s="0" t="n">
+        <v>481</v>
+      </c>
+      <c r="FA1" s="0" t="n">
+        <v>486</v>
+      </c>
+      <c r="FB1" s="0" t="n">
+        <v>490</v>
+      </c>
+      <c r="FC1" s="0" t="n">
+        <v>495</v>
+      </c>
+      <c r="FD1" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="FE1" s="0" t="n">
+        <v>504</v>
+      </c>
+      <c r="FF1" s="0" t="n">
+        <v>509</v>
+      </c>
+      <c r="FG1" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="FH1" s="0" t="n">
+        <v>519</v>
+      </c>
+      <c r="FI1" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="FJ1" s="0" t="n">
+        <v>530</v>
+      </c>
+      <c r="FK1" s="0" t="n">
+        <v>536</v>
+      </c>
+      <c r="FL1" s="0" t="n">
+        <v>541</v>
+      </c>
+      <c r="FM1" s="0" t="n">
+        <v>547</v>
+      </c>
+      <c r="FN1" s="0" t="n">
+        <v>553</v>
+      </c>
+      <c r="FO1" s="0" t="n">
+        <v>559</v>
+      </c>
+      <c r="FP1" s="0" t="n">
+        <v>565</v>
+      </c>
+      <c r="FQ1" s="0" t="n">
+        <v>571</v>
+      </c>
+      <c r="FR1" s="0" t="n">
+        <v>577</v>
+      </c>
+      <c r="FS1" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="FT1" s="0" t="n">
+        <v>590</v>
+      </c>
+      <c r="FU1" s="0" t="n">
+        <v>597</v>
+      </c>
+      <c r="FV1" s="0" t="n">
+        <v>604</v>
+      </c>
+      <c r="FW1" s="0" t="n">
+        <v>611</v>
+      </c>
+      <c r="FX1" s="0" t="n">
+        <v>619</v>
+      </c>
+      <c r="FY1" s="0" t="n">
+        <v>626</v>
+      </c>
+      <c r="FZ1" s="0" t="n">
+        <v>634</v>
+      </c>
+      <c r="GA1" s="0" t="n">
+        <v>641</v>
+      </c>
+      <c r="GB1" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="GC1" s="0" t="n">
+        <v>657</v>
+      </c>
+      <c r="GD1" s="0" t="n">
+        <v>666</v>
+      </c>
+      <c r="GE1" s="0" t="n">
+        <v>674</v>
+      </c>
+      <c r="GF1" s="0" t="n">
+        <v>683</v>
+      </c>
+      <c r="GG1" s="0" t="n">
+        <v>691</v>
+      </c>
+      <c r="GH1" s="0" t="n">
+        <v>701</v>
+      </c>
+      <c r="GI1" s="0" t="n">
+        <v>710</v>
+      </c>
+      <c r="GJ1" s="0" t="n">
+        <v>719</v>
+      </c>
+      <c r="GK1" s="0" t="n">
+        <v>729</v>
+      </c>
+      <c r="GL1" s="0" t="n">
+        <v>739</v>
+      </c>
+      <c r="GM1" s="0" t="n">
+        <v>749</v>
+      </c>
+      <c r="GN1" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="GO1" s="0" t="n">
+        <v>769</v>
+      </c>
+      <c r="GP1" s="0" t="n">
+        <v>780</v>
+      </c>
+      <c r="GQ1" s="0" t="n">
+        <v>791</v>
+      </c>
+      <c r="GR1" s="0" t="n">
+        <v>802</v>
+      </c>
+      <c r="GS1" s="0" t="n">
+        <v>814</v>
+      </c>
+      <c r="GT1" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="GU1" s="0" t="n">
+        <v>837</v>
+      </c>
+      <c r="GV1" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="GW1" s="0" t="n">
+        <v>862</v>
+      </c>
+      <c r="GX1" s="0" t="n">
+        <v>875</v>
+      </c>
+      <c r="GY1" s="0" t="n">
+        <v>888</v>
+      </c>
+      <c r="GZ1" s="0" t="n">
+        <v>901</v>
+      </c>
+      <c r="HA1" s="0" t="n">
+        <v>915</v>
+      </c>
+      <c r="HB1" s="0" t="n">
+        <v>929</v>
+      </c>
+      <c r="HC1" s="0" t="n">
+        <v>943</v>
+      </c>
+      <c r="HD1" s="0" t="n">
+        <v>958</v>
+      </c>
+      <c r="HE1" s="0" t="n">
+        <v>972</v>
+      </c>
+      <c r="HF1" s="0" t="n">
+        <v>988</v>
+      </c>
+      <c r="HG1" s="0" t="n">
+        <v>1003</v>
+      </c>
+      <c r="HH1" s="0" t="n">
+        <v>1019</v>
+      </c>
+      <c r="HI1" s="0" t="n">
+        <v>1035</v>
+      </c>
+      <c r="HJ1" s="0" t="n">
+        <v>1052</v>
+      </c>
+      <c r="HK1" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="HL1" s="0" t="n">
+        <v>1086</v>
+      </c>
+      <c r="HM1" s="0" t="n">
+        <v>1104</v>
+      </c>
+      <c r="HN1" s="0" t="n">
+        <v>1122</v>
+      </c>
+      <c r="HO1" s="0" t="n">
+        <v>1140</v>
+      </c>
+      <c r="HP1" s="0" t="n">
+        <v>1159</v>
+      </c>
+      <c r="HQ1" s="0" t="n">
+        <v>1178</v>
+      </c>
+      <c r="HR1" s="0" t="n">
+        <v>1198</v>
+      </c>
+      <c r="HS1" s="0" t="n">
+        <v>1218</v>
+      </c>
+      <c r="HT1" s="0" t="n">
+        <v>1239</v>
+      </c>
+      <c r="HU1" s="0" t="n">
+        <v>1260</v>
+      </c>
+      <c r="HV1" s="0" t="n">
+        <v>1281</v>
+      </c>
+      <c r="HW1" s="0" t="n">
+        <v>1303</v>
+      </c>
+      <c r="HX1" s="0" t="n">
+        <v>1326</v>
+      </c>
+      <c r="HY1" s="0" t="n">
+        <v>1349</v>
+      </c>
+      <c r="HZ1" s="0" t="n">
+        <v>1372</v>
+      </c>
+      <c r="IA1" s="0" t="n">
+        <v>1396</v>
+      </c>
+      <c r="IB1" s="0" t="n">
+        <v>1421</v>
+      </c>
+      <c r="IC1" s="0" t="n">
+        <v>1446</v>
+      </c>
+      <c r="ID1" s="0" t="n">
+        <v>1471</v>
+      </c>
+      <c r="IE1" s="0" t="n">
+        <v>1497</v>
+      </c>
+      <c r="IF1" s="0" t="n">
+        <v>1524</v>
+      </c>
+      <c r="IG1" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="IH1" s="0" t="n">
+        <v>1579</v>
+      </c>
+      <c r="II1" s="0" t="n">
+        <v>1608</v>
+      </c>
+      <c r="IJ1" s="0" t="n">
+        <v>1637</v>
+      </c>
+      <c r="IK1" s="0" t="n">
+        <v>1667</v>
+      </c>
+      <c r="IL1" s="0" t="n">
+        <v>1697</v>
+      </c>
+      <c r="IM1" s="0" t="n">
+        <v>1728</v>
+      </c>
+      <c r="IN1" s="0" t="n">
+        <v>1760</v>
+      </c>
+      <c r="IO1" s="0" t="n">
+        <v>1793</v>
+      </c>
+      <c r="IP1" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="IQ1" s="0" t="n">
+        <v>1860</v>
+      </c>
+      <c r="IR1" s="0" t="n">
+        <v>1895</v>
+      </c>
+      <c r="IS1" s="0" t="n">
+        <v>1930</v>
+      </c>
+      <c r="IT1" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="IU1" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="IV1" s="0" t="n">
+        <v>2041</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/doc/log-dimming-curve.xlsx
+++ b/doc/log-dimming-curve.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" state="visible" r:id="rId2"/>
@@ -284,7 +284,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -299,7 +299,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Log!$B$6:$B$6</c:f>
+              <c:f>X3!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -318,8 +318,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -329,7 +327,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Log!$B$7:$B$262</c:f>
+              <c:f>X3!$B$8:$B$263</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -1110,7 +1108,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Log!$C$6:$C$6</c:f>
+              <c:f>X3!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1129,8 +1127,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1140,7 +1137,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Log!$C$7:$C$262</c:f>
+              <c:f>X3!$C$8:$C$263</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -1148,769 +1145,769 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.0189530180857</c:v>
+                  <c:v>36.0214834656354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.0383224012084</c:v>
+                  <c:v>36.0430441956713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.0581172961878</c:v>
+                  <c:v>36.0647594545084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0783470507838</c:v>
+                  <c:v>36.0867065065473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.0990212181103</c:v>
+                  <c:v>36.1089626161883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.1201495611466</c:v>
+                  <c:v>36.1316050478323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.1417420573477</c:v>
+                  <c:v>36.1547110658796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.1638089033561</c:v>
+                  <c:v>36.178357934731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.186360519817</c:v>
+                  <c:v>36.2026229187869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.2094075562988</c:v>
+                  <c:v>36.2275832824479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.2329608963231</c:v>
+                  <c:v>36.2533162901147</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.257031662503</c:v>
+                  <c:v>36.2798992061877</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.2816312217967</c:v>
+                  <c:v>36.3074092950675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.3067711908745</c:v>
+                  <c:v>36.3359238211548</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.332463441605</c:v>
+                  <c:v>36.36552004885</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.3587201066613</c:v>
+                  <c:v>36.3962752425538</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.38555358525</c:v>
+                  <c:v>36.4282666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.4129765489673</c:v>
+                  <c:v>36.4615715855893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.4410019477821</c:v>
+                  <c:v>36.4962672637221</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.469643016152</c:v>
+                  <c:v>36.5324309654658</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.4989132792724</c:v>
+                  <c:v>36.5701399552208</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.5288265594643</c:v>
+                  <c:v>36.6094714973879</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.5593969827008</c:v>
+                  <c:v>36.6505028563675</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.5906389852784</c:v>
+                  <c:v>36.6933112965601</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36.622567320634</c:v>
+                  <c:v>36.7379740823665</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36.6551970663122</c:v>
+                  <c:v>36.7845684781871</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36.6885436310848</c:v>
+                  <c:v>36.8331717484225</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36.7226227622281</c:v>
+                  <c:v>36.8838611574734</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.7574505529585</c:v>
+                  <c:v>36.9367139697401</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36.7930434500327</c:v>
+                  <c:v>36.9918074496235</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.8294182615142</c:v>
+                  <c:v>37.0492188615238</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36.8665921647106</c:v>
+                  <c:v>37.1090254698419</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36.9045827142851</c:v>
+                  <c:v>37.1713045389782</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36.9434078505468</c:v>
+                  <c:v>37.2361333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.983085907922</c:v>
+                  <c:v>37.3035891173078</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0236356236128</c:v>
+                  <c:v>37.3737491553023</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0650761464455</c:v>
+                  <c:v>37.4466907117172</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.1074270459126</c:v>
+                  <c:v>37.5224910509533</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37.1507083214147</c:v>
+                  <c:v>37.6012274374109</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.1949404117047</c:v>
+                  <c:v>37.6829771354909</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>37.2401442045395</c:v>
+                  <c:v>37.7678174095936</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.2863410465437</c:v>
+                  <c:v>37.8558255241197</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.3335527532908</c:v>
+                  <c:v>37.9470787434697</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>37.3818016196043</c:v>
+                  <c:v>38.0416543320442</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.4311104300867</c:v>
+                  <c:v>38.1396295542438</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.4815024698785</c:v>
+                  <c:v>38.2410816744691</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>37.533001535655</c:v>
+                  <c:v>38.3460879571206</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37.5856319468627</c:v>
+                  <c:v>38.4547256665988</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>37.6394185572047</c:v>
+                  <c:v>38.5670720673044</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37.694386766377</c:v>
+                  <c:v>38.683204423638</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>37.7505625320626</c:v>
+                  <c:v>38.8032</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>37.8079723821904</c:v>
+                  <c:v>38.9271360607911</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>37.8666434274618</c:v>
+                  <c:v>39.0550898704118</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>37.9266033741533</c:v>
+                  <c:v>39.1871386932628</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>37.9878805372007</c:v>
+                  <c:v>39.3233597937445</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>38.0505038535698</c:v>
+                  <c:v>39.4638304362575</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>38.1145028959215</c:v>
+                  <c:v>39.6086278852025</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>38.1799078865769</c:v>
+                  <c:v>39.75782940498</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>38.2467497117894</c:v>
+                  <c:v>39.9115122599905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>38.3150599363298</c:v>
+                  <c:v>40.0697537146346</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>38.3848708183925</c:v>
+                  <c:v>40.232631033313</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>38.4562153248285</c:v>
+                  <c:v>40.4002214804261</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>38.5291271467136</c:v>
+                  <c:v>40.5726023203745</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>38.6036407152582</c:v>
+                  <c:v>40.7498508175589</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>38.6797912180671</c:v>
+                  <c:v>40.9320442363797</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>38.7576146157557</c:v>
+                  <c:v>41.1192598412375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>38.8371476589319</c:v>
+                  <c:v>41.311574896533</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>38.9184279055512</c:v>
+                  <c:v>41.5090666666667</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>39.0014937386521</c:v>
+                  <c:v>41.7118124160391</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>39.0863843844823</c:v>
+                  <c:v>41.9198894090508</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>39.1731399310224</c:v>
+                  <c:v>42.1333749101025</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>39.2618013469164</c:v>
+                  <c:v>42.3523461835945</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>39.3524105008188</c:v>
+                  <c:v>42.5768804939277</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>39.4450101811658</c:v>
+                  <c:v>42.8070551055024</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>39.5396441163817</c:v>
+                  <c:v>43.0429472827193</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>39.6363569955288</c:v>
+                  <c:v>43.284634289979</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>39.7351944894106</c:v>
+                  <c:v>43.5321933916819</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>39.8362032721392</c:v>
+                  <c:v>43.7857018522288</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>39.9394310431766</c:v>
+                  <c:v>44.0452369360201</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>40.0449265498589</c:v>
+                  <c:v>44.3108759074564</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>40.1527396104175</c:v>
+                  <c:v>44.5826960309383</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>40.2629211375037</c:v>
+                  <c:v>44.8607745708664</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>40.3755231622321</c:v>
+                  <c:v>45.1451887916412</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>40.4905988587508</c:v>
+                  <c:v>45.4360159576634</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>40.6082025693518</c:v>
+                  <c:v>45.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>40.7283898301335</c:v>
+                  <c:v>46.0372181830518</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>40.8512173972264</c:v>
+                  <c:v>46.3477477712192</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>40.9767432735949</c:v>
+                  <c:v>46.6649993622363</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>41.1050267364284</c:v>
+                  <c:v>46.9890502205034</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>41.2361283651334</c:v>
+                  <c:v>47.3199776104213</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>41.3701100699416</c:v>
+                  <c:v>47.6578587963905</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>41.507035121145</c:v>
+                  <c:v>48.0027710428116</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>41.6469681789749</c:v>
+                  <c:v>48.3547916140851</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>41.7899753241359</c:v>
+                  <c:v>48.7139977746116</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>41.9361240890115</c:v>
+                  <c:v>49.0804667887916</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42.0854834895547</c:v>
+                  <c:v>49.4542759210258</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>42.23812405788</c:v>
+                  <c:v>49.8355024357148</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>42.3941178755702</c:v>
+                  <c:v>50.224223597259</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>42.5535386077159</c:v>
+                  <c:v>50.620516670059</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>42.7164615377026</c:v>
+                  <c:v>51.0244589185155</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>42.8829636027612</c:v>
+                  <c:v>51.436127607029</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43.053123430301</c:v>
+                  <c:v>51.8556</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43.2270213750392</c:v>
+                  <c:v>52.2829533618292</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43.4047395569474</c:v>
+                  <c:v>52.718264956917</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43.5863619000307</c:v>
+                  <c:v>53.1616120496642</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43.7719741719598</c:v>
+                  <c:v>53.6130719044711</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43.9616640245728</c:v>
+                  <c:v>54.0727217857385</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>44.1555210352668</c:v>
+                  <c:v>54.5406389578669</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>44.3536367492999</c:v>
+                  <c:v>55.0169006852568</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>44.5561047230209</c:v>
+                  <c:v>55.5015842323089</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>44.76302056805</c:v>
+                  <c:v>55.9947668634236</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>44.9744819964291</c:v>
+                  <c:v>56.4965258430016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>45.1905888667651</c:v>
+                  <c:v>57.0069384354434</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>45.4114432313857</c:v>
+                  <c:v>57.5260819051496</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>45.6371493845316</c:v>
+                  <c:v>58.0540335165208</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>45.8678139116078</c:v>
+                  <c:v>58.5908705339575</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>46.1035457395164</c:v>
+                  <c:v>59.1366702218604</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>46.3444561880951</c:v>
+                  <c:v>59.6915098446299</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>46.5906590226859</c:v>
+                  <c:v>60.2554666666667</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>46.842270507859</c:v>
+                  <c:v>60.8286179523713</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>47.0994094623157</c:v>
+                  <c:v>61.4110409661442</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>47.3621973149991</c:v>
+                  <c:v>62.0028129723862</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>47.630758162436</c:v>
+                  <c:v>62.6040112354977</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>47.9052188273395</c:v>
+                  <c:v>63.2147130198792</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>48.1857089184983</c:v>
+                  <c:v>63.8349955899315</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>48.472360891982</c:v>
+                  <c:v>64.464936210055</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>48.7653101136914</c:v>
+                  <c:v>65.1046121446503</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>49.0646949232817</c:v>
+                  <c:v>65.7541006581179</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>49.3706566994912</c:v>
+                  <c:v>66.4134790148585</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>49.6833399269049</c:v>
+                  <c:v>67.0828244792727</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>50.002892264184</c:v>
+                  <c:v>67.7622143157609</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>50.3294646137953</c:v>
+                  <c:v>68.4517257887238</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>50.6632111932718</c:v>
+                  <c:v>69.1514361625619</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>51.0042896080393</c:v>
+                  <c:v>69.8614227016758</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>51.3528609258421</c:v>
+                  <c:v>70.5817626704661</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>51.7090897528043</c:v>
+                  <c:v>71.3125333333333</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>52.073144311162</c:v>
+                  <c:v>72.0538119546781</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>52.445196518703</c:v>
+                  <c:v>72.8056757989009</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>52.8254220699517</c:v>
+                  <c:v>73.5682021304023</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>53.2140005191373</c:v>
+                  <c:v>74.341468213583</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>53.611115364985</c:v>
+                  <c:v>75.1255513128435</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>54.0169541373697</c:v>
+                  <c:v>75.9205286925843</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>54.4317084858735</c:v>
+                  <c:v>76.7264776172061</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>54.8555742702883</c:v>
+                  <c:v>77.5434753511093</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>55.288751653107</c:v>
+                  <c:v>78.3715991586946</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>55.7314451940466</c:v>
+                  <c:v>79.2109263043626</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>56.1838639466471</c:v>
+                  <c:v>80.0615340525137</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>56.6462215569934</c:v>
+                  <c:v>80.9234996675487</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>57.1187363646057</c:v>
+                  <c:v>81.796900413868</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>57.6016315055457</c:v>
+                  <c:v>82.6818135558722</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>58.0951350177885</c:v>
+                  <c:v>83.5783163579619</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>58.5994799489095</c:v>
+                  <c:v>84.4864860845376</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>59.1149044661362</c:v>
+                  <c:v>85.4064</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>59.6416519688183</c:v>
+                  <c:v>86.3381353687496</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>60.1799712033685</c:v>
+                  <c:v>87.2817694551869</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>60.7301163807278</c:v>
+                  <c:v>88.2373795237126</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>61.2923472964123</c:v>
+                  <c:v>89.2050428387272</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>61.8669294531964</c:v>
+                  <c:v>90.1848366646313</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>62.4541341864913</c:v>
+                  <c:v>91.1768382658254</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>63.0542387924779</c:v>
+                  <c:v>92.1811249067101</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>63.667526659055</c:v>
+                  <c:v>93.197773851686</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>64.2942873996634</c:v>
+                  <c:v>94.2268623651537</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>64.9348169900504</c:v>
+                  <c:v>95.2684677115137</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>65.5894179080389</c:v>
+                  <c:v>96.3226671551666</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>66.2583992763665</c:v>
+                  <c:v>97.3895379605129</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>66.9420770086626</c:v>
+                  <c:v>98.4691573919533</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>67.6407739586333</c:v>
+                  <c:v>99.5616027138883</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>68.3548200725219</c:v>
+                  <c:v>100.666951190719</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>69.0845525449205</c:v>
+                  <c:v>101.785280086844</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>69.8303159780033</c:v>
+                  <c:v>102.916666666667</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>70.5924625442583</c:v>
+                  <c:v>104.061188194586</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>71.3713521527944</c:v>
+                  <c:v>105.218921935002</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>72.1673526193011</c:v>
+                  <c:v>106.389945152317</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>72.9808398397427</c:v>
+                  <c:v>107.57433511093</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>73.8121979678679</c:v>
+                  <c:v>108.772169075243</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>74.661819596619</c:v>
+                  <c:v>109.983524309655</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>75.5301059435266</c:v>
+                  <c:v>111.208478078567</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>76.4174670401766</c:v>
+                  <c:v>112.44710764638</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>77.3243219258398</c:v>
+                  <c:v>113.699490277495</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>78.2510988453554</c:v>
+                  <c:v>114.965703236312</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>79.1982354513611</c:v>
+                  <c:v>116.245823787231</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>80.1661790109667</c:v>
+                  <c:v>117.539929194654</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>81.1553866169665</c:v>
+                  <c:v>118.84809672298</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>82.1663254036936</c:v>
+                  <c:v>120.17040363661</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>83.1994727676146</c:v>
+                  <c:v>121.506927199946</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>84.2553165927709</c:v>
+                  <c:v>122.857744677387</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>85.3343554811729</c:v>
+                  <c:v>124.222933333333</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>86.4370989882549</c:v>
+                  <c:v>125.602570432187</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>87.5640678635032</c:v>
+                  <c:v>126.996733238347</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>88.7157942963698</c:v>
+                  <c:v>128.405499016216</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>89.892822167589</c:v>
+                  <c:v>129.828945030192</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>91.0957073060141</c:v>
+                  <c:v>131.267148544677</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>92.3250177510975</c:v>
+                  <c:v>132.720186824072</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>93.5813340211361</c:v>
+                  <c:v>134.188137132777</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>94.8652493874103</c:v>
+                  <c:v>135.671076735192</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>96.1773701543443</c:v>
+                  <c:v>137.169082895719</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>97.5183159458225</c:v>
+                  <c:v>138.682232878757</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>98.8887199977947</c:v>
+                  <c:v>140.210603948708</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>100.289229457309</c:v>
+                  <c:v>141.754273369971</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>101.720505688117</c:v>
+                  <c:v>143.313318406948</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>103.183224582986</c:v>
+                  <c:v>144.887816324038</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>104.67807688288</c:v>
+                  <c:v>146.477844385643</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>106.205768503148</c:v>
+                  <c:v>148.083479856164</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>107.767020866878</c:v>
+                  <c:v>149.7048</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>109.362571245576</c:v>
+                  <c:v>151.341882081552</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>110.993173107328</c:v>
+                  <c:v>152.994803365222</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>112.659596472612</c:v>
+                  <c:v>154.663641115408</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>114.362628277924</c:v>
+                  <c:v>156.348472596513</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>116.103072747393</c:v>
+                  <c:v>158.049375072936</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>117.881751772564</c:v>
+                  <c:v>159.766425809078</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>119.699505300516</c:v>
+                  <c:v>161.49970206934</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>121.557191730514</c:v>
+                  <c:v>163.249281118122</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>123.455688319371</c:v>
+                  <c:v>165.015240219825</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>125.395891595714</c:v>
+                  <c:v>166.797656638849</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>127.378717783355</c:v>
+                  <c:v>168.596607639596</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>129.405103233958</c:v>
+                  <c:v>170.412170486464</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>131.476004869216</c:v>
+                  <c:v>172.244422443856</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>133.592400632735</c:v>
+                  <c:v>174.093440776172</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>135.755289951853</c:v>
+                  <c:v>175.959302747812</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>137.965694209595</c:v>
+                  <c:v>177.842085623177</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>140.22465722701</c:v>
+                  <c:v>179.741866666667</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>142.533245756086</c:v>
+                  <c:v>181.658723142683</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>144.892549983511</c:v>
+                  <c:v>183.592732315625</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>147.303684045489</c:v>
+                  <c:v>185.543971449895</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>149.767786553868</c:v>
+                  <c:v>187.512517809892</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>152.286021133832</c:v>
+                  <c:v>189.498448660018</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>154.859576973397</c:v>
+                  <c:v>191.501841264672</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>157.489669384984</c:v>
+                  <c:v>193.522772888256</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>160.177540379327</c:v>
+                  <c:v>195.561320795169</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>162.924459251987</c:v>
+                  <c:v>197.617562249813</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>165.731723182754</c:v>
+                  <c:v>199.691574516589</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>168.600657848218</c:v>
+                  <c:v>201.783434859895</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>171.532618047788</c:v>
+                  <c:v>203.893220544135</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>174.528988343475</c:v>
+                  <c:v>206.021008833706</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>177.591183713723</c:v>
+                  <c:v>208.166876993012</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>180.720650221606</c:v>
+                  <c:v>210.330902286451</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>183.918865697705</c:v>
+                  <c:v>212.513161978425</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>187.18734043798</c:v>
+                  <c:v>214.713733333333</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>190.527617916985</c:v>
+                  <c:v>216.932693615578</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>193.941275516741</c:v>
+                  <c:v>219.170120089558</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>197.429925271623</c:v>
+                  <c:v>221.426090019676</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>200.995214629616</c:v>
+                  <c:v>223.70068067033</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>204.638827230286</c:v>
+                  <c:v>225.993969305923</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>208.362483699853</c:v>
+                  <c:v>228.306033190854</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>212.167942463716</c:v>
+                  <c:v>230.636949589524</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>216.057000576842</c:v>
+                  <c:v>232.986795766334</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>220.031494572388</c:v>
+                  <c:v>235.355648985684</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>224.093301328969</c:v>
+                  <c:v>237.743586511975</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>228.244338956978</c:v>
+                  <c:v>240.150685609607</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>232.486567704377</c:v>
+                  <c:v>242.577023542981</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>236.821990882386</c:v>
+                  <c:v>245.022677576498</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>241.252655811509</c:v>
+                  <c:v>247.487724974557</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>245.780654788341</c:v>
+                  <c:v>249.97224300156</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>250.408126073617</c:v>
+                  <c:v>252.476308921908</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>255.137254901961</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,11 +1915,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="31123728"/>
-        <c:axId val="88808483"/>
+        <c:axId val="36811195"/>
+        <c:axId val="96435088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31123728"/>
+        <c:axId val="36811195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,14 +1947,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88808483"/>
+        <c:crossAx val="96435088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88808483"/>
+        <c:axId val="96435088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,7 +1969,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1994,7 +1991,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31123728"/>
+        <c:crossAx val="36811195"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2041,7 +2038,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2056,7 +2053,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>X3!$B$7</c:f>
+              <c:f>Log!$B$6:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2075,6 +2072,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2084,7 +2083,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>X3!$B$8:$B$263</c:f>
+              <c:f>Log!$B$7:$B$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -2865,7 +2864,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>X3!$C$7</c:f>
+              <c:f>Log!$C$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2884,7 +2883,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2894,7 +2894,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>X3!$C$8:$C$263</c:f>
+              <c:f>Log!$C$7:$C$262</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -2902,769 +2902,769 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.0214834656354</c:v>
+                  <c:v>36.0189530180857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.0430441956713</c:v>
+                  <c:v>36.0383224012084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.0647594545084</c:v>
+                  <c:v>36.0581172961878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0867065065473</c:v>
+                  <c:v>36.0783470507838</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.1089626161883</c:v>
+                  <c:v>36.0990212181103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.1316050478323</c:v>
+                  <c:v>36.1201495611466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.1547110658796</c:v>
+                  <c:v>36.1417420573477</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.178357934731</c:v>
+                  <c:v>36.1638089033561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.2026229187869</c:v>
+                  <c:v>36.186360519817</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.2275832824479</c:v>
+                  <c:v>36.2094075562988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.2533162901147</c:v>
+                  <c:v>36.2329608963231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.2798992061877</c:v>
+                  <c:v>36.257031662503</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.3074092950675</c:v>
+                  <c:v>36.2816312217967</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.3359238211548</c:v>
+                  <c:v>36.3067711908745</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.36552004885</c:v>
+                  <c:v>36.332463441605</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.3962752425538</c:v>
+                  <c:v>36.3587201066613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.4282666666667</c:v>
+                  <c:v>36.38555358525</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.4615715855893</c:v>
+                  <c:v>36.4129765489673</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.4962672637221</c:v>
+                  <c:v>36.4410019477821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.5324309654658</c:v>
+                  <c:v>36.469643016152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.5701399552208</c:v>
+                  <c:v>36.4989132792724</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.6094714973879</c:v>
+                  <c:v>36.5288265594643</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.6505028563675</c:v>
+                  <c:v>36.5593969827008</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.6933112965601</c:v>
+                  <c:v>36.5906389852784</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36.7379740823665</c:v>
+                  <c:v>36.622567320634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36.7845684781871</c:v>
+                  <c:v>36.6551970663122</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36.8331717484225</c:v>
+                  <c:v>36.6885436310848</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36.8838611574734</c:v>
+                  <c:v>36.7226227622281</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.9367139697401</c:v>
+                  <c:v>36.7574505529585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36.9918074496235</c:v>
+                  <c:v>36.7930434500327</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.0492188615238</c:v>
+                  <c:v>36.8294182615142</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.1090254698419</c:v>
+                  <c:v>36.8665921647106</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37.1713045389782</c:v>
+                  <c:v>36.9045827142851</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37.2361333333333</c:v>
+                  <c:v>36.9434078505468</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.3035891173078</c:v>
+                  <c:v>36.983085907922</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.3737491553023</c:v>
+                  <c:v>37.0236356236128</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.4466907117172</c:v>
+                  <c:v>37.0650761464455</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.5224910509533</c:v>
+                  <c:v>37.1074270459126</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37.6012274374109</c:v>
+                  <c:v>37.1507083214147</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.6829771354909</c:v>
+                  <c:v>37.1949404117047</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>37.7678174095936</c:v>
+                  <c:v>37.2401442045395</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.8558255241197</c:v>
+                  <c:v>37.2863410465437</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.9470787434697</c:v>
+                  <c:v>37.3335527532908</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.0416543320442</c:v>
+                  <c:v>37.3818016196043</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38.1396295542438</c:v>
+                  <c:v>37.4311104300867</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38.2410816744691</c:v>
+                  <c:v>37.4815024698785</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>38.3460879571206</c:v>
+                  <c:v>37.533001535655</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38.4547256665988</c:v>
+                  <c:v>37.5856319468627</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38.5670720673044</c:v>
+                  <c:v>37.6394185572047</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38.683204423638</c:v>
+                  <c:v>37.694386766377</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>38.8032</c:v>
+                  <c:v>37.7505625320626</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38.9271360607911</c:v>
+                  <c:v>37.8079723821904</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>39.0550898704118</c:v>
+                  <c:v>37.8666434274618</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>39.1871386932628</c:v>
+                  <c:v>37.9266033741533</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>39.3233597937445</c:v>
+                  <c:v>37.9878805372007</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>39.4638304362575</c:v>
+                  <c:v>38.0505038535698</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>39.6086278852025</c:v>
+                  <c:v>38.1145028959215</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>39.75782940498</c:v>
+                  <c:v>38.1799078865769</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>39.9115122599905</c:v>
+                  <c:v>38.2467497117894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40.0697537146346</c:v>
+                  <c:v>38.3150599363298</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>40.232631033313</c:v>
+                  <c:v>38.3848708183925</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>40.4002214804261</c:v>
+                  <c:v>38.4562153248285</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>40.5726023203745</c:v>
+                  <c:v>38.5291271467136</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>40.7498508175589</c:v>
+                  <c:v>38.6036407152582</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>40.9320442363797</c:v>
+                  <c:v>38.6797912180671</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>41.1192598412375</c:v>
+                  <c:v>38.7576146157557</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>41.311574896533</c:v>
+                  <c:v>38.8371476589319</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>41.5090666666667</c:v>
+                  <c:v>38.9184279055512</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>41.7118124160391</c:v>
+                  <c:v>39.0014937386521</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>41.9198894090508</c:v>
+                  <c:v>39.0863843844823</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42.1333749101025</c:v>
+                  <c:v>39.1731399310224</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42.3523461835945</c:v>
+                  <c:v>39.2618013469164</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42.5768804939277</c:v>
+                  <c:v>39.3524105008188</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42.8070551055024</c:v>
+                  <c:v>39.4450101811658</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43.0429472827193</c:v>
+                  <c:v>39.5396441163817</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43.284634289979</c:v>
+                  <c:v>39.6363569955288</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43.5321933916819</c:v>
+                  <c:v>39.7351944894106</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43.7857018522288</c:v>
+                  <c:v>39.8362032721392</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>44.0452369360201</c:v>
+                  <c:v>39.9394310431766</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>44.3108759074564</c:v>
+                  <c:v>40.0449265498589</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>44.5826960309383</c:v>
+                  <c:v>40.1527396104175</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>44.8607745708664</c:v>
+                  <c:v>40.2629211375037</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>45.1451887916412</c:v>
+                  <c:v>40.3755231622321</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45.4360159576634</c:v>
+                  <c:v>40.4905988587508</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>45.7333333333333</c:v>
+                  <c:v>40.6082025693518</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>46.0372181830518</c:v>
+                  <c:v>40.7283898301335</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>46.3477477712192</c:v>
+                  <c:v>40.8512173972264</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>46.6649993622363</c:v>
+                  <c:v>40.9767432735949</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>46.9890502205034</c:v>
+                  <c:v>41.1050267364284</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>47.3199776104213</c:v>
+                  <c:v>41.2361283651334</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>47.6578587963905</c:v>
+                  <c:v>41.3701100699416</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>48.0027710428116</c:v>
+                  <c:v>41.507035121145</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>48.3547916140851</c:v>
+                  <c:v>41.6469681789749</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>48.7139977746116</c:v>
+                  <c:v>41.7899753241359</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>49.0804667887916</c:v>
+                  <c:v>41.9361240890115</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>49.4542759210258</c:v>
+                  <c:v>42.0854834895547</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>49.8355024357148</c:v>
+                  <c:v>42.23812405788</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>50.224223597259</c:v>
+                  <c:v>42.3941178755702</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>50.620516670059</c:v>
+                  <c:v>42.5535386077159</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>51.0244589185155</c:v>
+                  <c:v>42.7164615377026</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>51.436127607029</c:v>
+                  <c:v>42.8829636027612</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>51.8556</c:v>
+                  <c:v>43.053123430301</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>52.2829533618292</c:v>
+                  <c:v>43.2270213750392</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>52.718264956917</c:v>
+                  <c:v>43.4047395569474</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>53.1616120496642</c:v>
+                  <c:v>43.5863619000307</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>53.6130719044711</c:v>
+                  <c:v>43.7719741719598</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>54.0727217857385</c:v>
+                  <c:v>43.9616640245728</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>54.5406389578669</c:v>
+                  <c:v>44.1555210352668</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>55.0169006852568</c:v>
+                  <c:v>44.3536367492999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>55.5015842323089</c:v>
+                  <c:v>44.5561047230209</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>55.9947668634236</c:v>
+                  <c:v>44.76302056805</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>56.4965258430016</c:v>
+                  <c:v>44.9744819964291</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>57.0069384354434</c:v>
+                  <c:v>45.1905888667651</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>57.5260819051496</c:v>
+                  <c:v>45.4114432313857</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>58.0540335165208</c:v>
+                  <c:v>45.6371493845316</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>58.5908705339575</c:v>
+                  <c:v>45.8678139116078</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>59.1366702218604</c:v>
+                  <c:v>46.1035457395164</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>59.6915098446299</c:v>
+                  <c:v>46.3444561880951</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>60.2554666666667</c:v>
+                  <c:v>46.5906590226859</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>60.8286179523713</c:v>
+                  <c:v>46.842270507859</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>61.4110409661442</c:v>
+                  <c:v>47.0994094623157</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>62.0028129723862</c:v>
+                  <c:v>47.3621973149991</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>62.6040112354977</c:v>
+                  <c:v>47.630758162436</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>63.2147130198792</c:v>
+                  <c:v>47.9052188273395</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>63.8349955899315</c:v>
+                  <c:v>48.1857089184983</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>64.464936210055</c:v>
+                  <c:v>48.472360891982</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>65.1046121446503</c:v>
+                  <c:v>48.7653101136914</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>65.7541006581179</c:v>
+                  <c:v>49.0646949232817</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>66.4134790148585</c:v>
+                  <c:v>49.3706566994912</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>67.0828244792727</c:v>
+                  <c:v>49.6833399269049</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>67.7622143157609</c:v>
+                  <c:v>50.002892264184</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>68.4517257887238</c:v>
+                  <c:v>50.3294646137953</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>69.1514361625619</c:v>
+                  <c:v>50.6632111932718</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>69.8614227016758</c:v>
+                  <c:v>51.0042896080393</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>70.5817626704661</c:v>
+                  <c:v>51.3528609258421</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>71.3125333333333</c:v>
+                  <c:v>51.7090897528043</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>72.0538119546781</c:v>
+                  <c:v>52.073144311162</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>72.8056757989009</c:v>
+                  <c:v>52.445196518703</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>73.5682021304023</c:v>
+                  <c:v>52.8254220699517</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>74.341468213583</c:v>
+                  <c:v>53.2140005191373</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>75.1255513128435</c:v>
+                  <c:v>53.611115364985</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>75.9205286925843</c:v>
+                  <c:v>54.0169541373697</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>76.7264776172061</c:v>
+                  <c:v>54.4317084858735</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>77.5434753511093</c:v>
+                  <c:v>54.8555742702883</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>78.3715991586946</c:v>
+                  <c:v>55.288751653107</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>79.2109263043626</c:v>
+                  <c:v>55.7314451940466</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>80.0615340525137</c:v>
+                  <c:v>56.1838639466471</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>80.9234996675487</c:v>
+                  <c:v>56.6462215569934</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>81.796900413868</c:v>
+                  <c:v>57.1187363646057</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>82.6818135558722</c:v>
+                  <c:v>57.6016315055457</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>83.5783163579619</c:v>
+                  <c:v>58.0951350177885</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>84.4864860845376</c:v>
+                  <c:v>58.5994799489095</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>85.4064</c:v>
+                  <c:v>59.1149044661362</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>86.3381353687496</c:v>
+                  <c:v>59.6416519688183</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>87.2817694551869</c:v>
+                  <c:v>60.1799712033685</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>88.2373795237126</c:v>
+                  <c:v>60.7301163807278</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>89.2050428387272</c:v>
+                  <c:v>61.2923472964123</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>90.1848366646313</c:v>
+                  <c:v>61.8669294531964</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>91.1768382658254</c:v>
+                  <c:v>62.4541341864913</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>92.1811249067101</c:v>
+                  <c:v>63.0542387924779</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>93.197773851686</c:v>
+                  <c:v>63.667526659055</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>94.2268623651537</c:v>
+                  <c:v>64.2942873996634</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>95.2684677115137</c:v>
+                  <c:v>64.9348169900504</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>96.3226671551666</c:v>
+                  <c:v>65.5894179080389</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>97.3895379605129</c:v>
+                  <c:v>66.2583992763665</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>98.4691573919533</c:v>
+                  <c:v>66.9420770086626</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>99.5616027138883</c:v>
+                  <c:v>67.6407739586333</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>100.666951190719</c:v>
+                  <c:v>68.3548200725219</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>101.785280086844</c:v>
+                  <c:v>69.0845525449205</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>102.916666666667</c:v>
+                  <c:v>69.8303159780033</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>104.061188194586</c:v>
+                  <c:v>70.5924625442583</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>105.218921935002</c:v>
+                  <c:v>71.3713521527944</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>106.389945152317</c:v>
+                  <c:v>72.1673526193011</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>107.57433511093</c:v>
+                  <c:v>72.9808398397427</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>108.772169075243</c:v>
+                  <c:v>73.8121979678679</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>109.983524309655</c:v>
+                  <c:v>74.661819596619</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>111.208478078567</c:v>
+                  <c:v>75.5301059435266</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>112.44710764638</c:v>
+                  <c:v>76.4174670401766</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>113.699490277495</c:v>
+                  <c:v>77.3243219258398</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>114.965703236312</c:v>
+                  <c:v>78.2510988453554</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>116.245823787231</c:v>
+                  <c:v>79.1982354513611</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>117.539929194654</c:v>
+                  <c:v>80.1661790109667</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>118.84809672298</c:v>
+                  <c:v>81.1553866169665</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>120.17040363661</c:v>
+                  <c:v>82.1663254036936</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>121.506927199946</c:v>
+                  <c:v>83.1994727676146</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>122.857744677387</c:v>
+                  <c:v>84.2553165927709</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>124.222933333333</c:v>
+                  <c:v>85.3343554811729</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>125.602570432187</c:v>
+                  <c:v>86.4370989882549</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>126.996733238347</c:v>
+                  <c:v>87.5640678635032</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>128.405499016216</c:v>
+                  <c:v>88.7157942963698</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>129.828945030192</c:v>
+                  <c:v>89.892822167589</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>131.267148544677</c:v>
+                  <c:v>91.0957073060141</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>132.720186824072</c:v>
+                  <c:v>92.3250177510975</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>134.188137132777</c:v>
+                  <c:v>93.5813340211361</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>135.671076735192</c:v>
+                  <c:v>94.8652493874103</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>137.169082895719</c:v>
+                  <c:v>96.1773701543443</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>138.682232878757</c:v>
+                  <c:v>97.5183159458225</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>140.210603948708</c:v>
+                  <c:v>98.8887199977947</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>141.754273369971</c:v>
+                  <c:v>100.289229457309</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>143.313318406948</c:v>
+                  <c:v>101.720505688117</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>144.887816324038</c:v>
+                  <c:v>103.183224582986</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>146.477844385643</c:v>
+                  <c:v>104.67807688288</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>148.083479856164</c:v>
+                  <c:v>106.205768503148</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>149.7048</c:v>
+                  <c:v>107.767020866878</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>151.341882081552</c:v>
+                  <c:v>109.362571245576</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>152.994803365222</c:v>
+                  <c:v>110.993173107328</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>154.663641115408</c:v>
+                  <c:v>112.659596472612</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>156.348472596513</c:v>
+                  <c:v>114.362628277924</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>158.049375072936</c:v>
+                  <c:v>116.103072747393</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>159.766425809078</c:v>
+                  <c:v>117.881751772564</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>161.49970206934</c:v>
+                  <c:v>119.699505300516</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>163.249281118122</c:v>
+                  <c:v>121.557191730514</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>165.015240219825</c:v>
+                  <c:v>123.455688319371</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>166.797656638849</c:v>
+                  <c:v>125.395891595714</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>168.596607639596</c:v>
+                  <c:v>127.378717783355</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>170.412170486464</c:v>
+                  <c:v>129.405103233958</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>172.244422443856</c:v>
+                  <c:v>131.476004869216</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>174.093440776172</c:v>
+                  <c:v>133.592400632735</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>175.959302747812</c:v>
+                  <c:v>135.755289951853</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>177.842085623177</c:v>
+                  <c:v>137.965694209595</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>179.741866666667</c:v>
+                  <c:v>140.22465722701</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>181.658723142683</c:v>
+                  <c:v>142.533245756086</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>183.592732315625</c:v>
+                  <c:v>144.892549983511</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>185.543971449895</c:v>
+                  <c:v>147.303684045489</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>187.512517809892</c:v>
+                  <c:v>149.767786553868</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>189.498448660018</c:v>
+                  <c:v>152.286021133832</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>191.501841264672</c:v>
+                  <c:v>154.859576973397</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>193.522772888256</c:v>
+                  <c:v>157.489669384984</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>195.561320795169</c:v>
+                  <c:v>160.177540379327</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>197.617562249813</c:v>
+                  <c:v>162.924459251987</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>199.691574516589</c:v>
+                  <c:v>165.731723182754</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>201.783434859895</c:v>
+                  <c:v>168.600657848218</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>203.893220544135</c:v>
+                  <c:v>171.532618047788</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>206.021008833706</c:v>
+                  <c:v>174.528988343475</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>208.166876993012</c:v>
+                  <c:v>177.591183713723</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>210.330902286451</c:v>
+                  <c:v>180.720650221606</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>212.513161978425</c:v>
+                  <c:v>183.918865697705</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>214.713733333333</c:v>
+                  <c:v>187.18734043798</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>216.932693615578</c:v>
+                  <c:v>190.527617916985</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>219.170120089558</c:v>
+                  <c:v>193.941275516741</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>221.426090019676</c:v>
+                  <c:v>197.429925271623</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>223.70068067033</c:v>
+                  <c:v>200.995214629616</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>225.993969305923</c:v>
+                  <c:v>204.638827230286</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>228.306033190854</c:v>
+                  <c:v>208.362483699853</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>230.636949589524</c:v>
+                  <c:v>212.167942463716</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>232.986795766334</c:v>
+                  <c:v>216.057000576842</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>235.355648985684</c:v>
+                  <c:v>220.031494572388</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>237.743586511975</c:v>
+                  <c:v>224.093301328969</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>240.150685609607</c:v>
+                  <c:v>228.244338956978</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>242.577023542981</c:v>
+                  <c:v>232.486567704377</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>245.022677576498</c:v>
+                  <c:v>236.821990882386</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>247.487724974557</c:v>
+                  <c:v>241.252655811509</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>249.97224300156</c:v>
+                  <c:v>245.780654788341</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>252.476308921908</c:v>
+                  <c:v>250.408126073617</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>255</c:v>
+                  <c:v>255.137254901961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3672,11 +3672,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="87796409"/>
-        <c:axId val="53096067"/>
+        <c:axId val="11242264"/>
+        <c:axId val="48795442"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87796409"/>
+        <c:axId val="11242264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,14 +3704,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53096067"/>
+        <c:crossAx val="48795442"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53096067"/>
+        <c:axId val="48795442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,7 +3726,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3748,7 +3748,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87796409"/>
+        <c:crossAx val="11242264"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3872,8 +3872,8 @@
   </sheetPr>
   <dimension ref="B1:D262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7273,8 +7273,8 @@
   </sheetPr>
   <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E250" activeCellId="0" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
